--- a/posesiones/1381276.xlsx
+++ b/posesiones/1381276.xlsx
@@ -1820,10 +1820,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1914,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2014,7 +2014,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>18</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2117,7 +2117,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>22</v>
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R10">
         <v>21</v>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2270,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R12">
         <v>14</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2373,7 +2373,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R14">
         <v>10</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2476,7 +2476,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R16">
         <v>17</v>
@@ -2529,7 +2529,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R17">
         <v>17</v>
@@ -2579,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2673,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2723,7 +2723,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R21">
         <v>8</v>
@@ -2776,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R22">
         <v>16</v>
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2879,7 +2879,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R24">
         <v>13</v>
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R26">
         <v>15</v>
@@ -3032,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3223,7 +3223,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R31">
         <v>17</v>
@@ -3273,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3414,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3558,7 +3558,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R38">
         <v>14</v>
@@ -3611,7 +3611,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R39">
         <v>13</v>
@@ -3664,7 +3664,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R40">
         <v>20</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3767,7 +3767,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R42">
         <v>5</v>
@@ -3820,7 +3820,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R43">
         <v>21</v>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4011,7 +4011,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4108,7 +4108,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R49">
         <v>24</v>
@@ -4161,7 +4161,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R50">
         <v>16</v>
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4261,7 +4261,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4308,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4358,7 +4358,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R54">
         <v>15</v>
@@ -4411,7 +4411,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R55">
         <v>13</v>
@@ -4464,7 +4464,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R56">
         <v>16</v>
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4564,7 +4564,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4614,7 +4614,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R59">
         <v>15</v>
@@ -4664,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4714,7 +4714,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R61">
         <v>20</v>
@@ -4767,7 +4767,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4817,7 +4817,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R63">
         <v>6</v>
@@ -4867,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4911,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4958,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5005,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5055,7 +5055,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R68">
         <v>20</v>
@@ -5108,7 +5108,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R69">
         <v>20</v>
@@ -5161,7 +5161,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5211,7 +5211,7 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R71">
         <v>14</v>
@@ -5264,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5311,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5358,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5405,7 +5405,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5452,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5502,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5552,7 +5552,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R78">
         <v>22</v>
@@ -5605,7 +5605,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R79">
         <v>17</v>
@@ -5655,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5702,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5749,7 +5749,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5796,7 +5796,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5843,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5890,7 +5890,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5937,7 +5937,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5987,7 +5987,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R87">
         <v>27</v>
@@ -6037,7 +6037,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6131,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6228,7 +6228,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R92">
         <v>14</v>
@@ -6281,7 +6281,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6331,7 +6331,7 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R94">
         <v>12</v>
@@ -6384,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6434,7 +6434,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R96">
         <v>16</v>
@@ -6484,7 +6484,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6531,7 +6531,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6578,7 +6578,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6625,7 +6625,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6672,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6719,7 +6719,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6766,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6813,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6863,7 +6863,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R105">
         <v>16</v>
@@ -6916,7 +6916,7 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R106">
         <v>20</v>
@@ -6966,7 +6966,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7013,7 +7013,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7060,7 +7060,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7107,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7154,7 +7154,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7201,7 +7201,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7251,7 +7251,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R113">
         <v>12</v>
@@ -7301,7 +7301,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7351,7 +7351,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R115">
         <v>2</v>
@@ -7395,10 +7395,10 @@
         <v>1</v>
       </c>
       <c r="P116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q116">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7445,7 +7445,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7492,7 +7492,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7539,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7586,7 +7586,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7633,7 +7633,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7680,7 +7680,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7721,10 +7721,10 @@
         <v>1</v>
       </c>
       <c r="P123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q123">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7774,7 +7774,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R124">
         <v>5</v>
@@ -7827,7 +7827,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R125">
         <v>24</v>
@@ -7877,7 +7877,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7927,7 +7927,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R127">
         <v>21</v>
@@ -7980,7 +7980,7 @@
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R128">
         <v>6</v>
@@ -8030,7 +8030,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8080,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R130">
         <v>19</v>
@@ -8133,7 +8133,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8180,7 +8180,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8230,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8277,7 +8277,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8324,7 +8324,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8418,7 +8418,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8465,7 +8465,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8512,7 +8512,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8559,7 +8559,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8609,7 +8609,7 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R141">
         <v>27</v>
@@ -8662,7 +8662,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8712,7 +8712,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R143">
         <v>6</v>
@@ -8762,7 +8762,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8812,7 +8812,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R145">
         <v>17</v>
@@ -8862,7 +8862,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -8962,7 +8962,7 @@
         <v>1</v>
       </c>
       <c r="Q148">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R148">
         <v>5</v>
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9059,7 +9059,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9106,7 +9106,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9153,7 +9153,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9200,7 +9200,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9247,7 +9247,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9297,7 +9297,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9344,7 +9344,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9394,7 +9394,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9441,7 +9441,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9538,7 +9538,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R160">
         <v>43</v>
@@ -9591,7 +9591,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9641,7 +9641,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R162">
         <v>6</v>
@@ -9691,7 +9691,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9782,7 +9782,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9882,7 +9882,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R167">
         <v>19</v>
@@ -9935,7 +9935,7 @@
         <v>1</v>
       </c>
       <c r="Q168">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R168">
         <v>16</v>
@@ -9988,7 +9988,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10038,7 +10038,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R170">
         <v>7</v>
@@ -10091,7 +10091,7 @@
         <v>1</v>
       </c>
       <c r="Q171">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R171">
         <v>14</v>
@@ -10141,7 +10141,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10188,7 +10188,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10235,7 +10235,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R174">
         <v>28</v>
@@ -10285,7 +10285,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10332,7 +10332,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10379,7 +10379,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10426,7 +10426,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10473,7 +10473,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10520,7 +10520,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10570,7 +10570,7 @@
         <v>1</v>
       </c>
       <c r="Q181">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R181">
         <v>21</v>
@@ -10620,7 +10620,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10670,7 +10670,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R183">
         <v>5</v>
@@ -10720,7 +10720,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10770,7 +10770,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R185">
         <v>8</v>
@@ -10823,7 +10823,7 @@
         <v>1</v>
       </c>
       <c r="Q186">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R186">
         <v>6</v>
@@ -10876,7 +10876,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10926,7 +10926,7 @@
         <v>1</v>
       </c>
       <c r="Q188">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R188">
         <v>17</v>
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11029,7 +11029,7 @@
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R190">
         <v>15</v>
@@ -11082,7 +11082,7 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R191">
         <v>14</v>
@@ -11132,7 +11132,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11182,7 +11182,7 @@
         <v>1</v>
       </c>
       <c r="Q193">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R193">
         <v>24</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11279,7 +11279,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11332,7 +11332,7 @@
         <v>1</v>
       </c>
       <c r="Q196">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R196">
         <v>16</v>
@@ -11382,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11429,7 +11429,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11476,7 +11476,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11523,7 +11523,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11570,7 +11570,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11664,7 +11664,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11714,7 +11714,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R204">
         <v>17</v>
@@ -11767,7 +11767,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11817,7 +11817,7 @@
         <v>1</v>
       </c>
       <c r="Q206">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R206">
         <v>27</v>
@@ -11867,7 +11867,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11917,7 +11917,7 @@
         <v>1</v>
       </c>
       <c r="Q208">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R208">
         <v>23</v>
@@ -11970,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12020,7 +12020,7 @@
         <v>1</v>
       </c>
       <c r="Q210">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R210">
         <v>10</v>
@@ -12073,7 +12073,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12123,7 +12123,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R212">
         <v>20</v>
@@ -12173,7 +12173,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12220,7 +12220,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12270,7 +12270,7 @@
         <v>1</v>
       </c>
       <c r="Q215">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R215">
         <v>12</v>
@@ -12320,7 +12320,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12370,7 +12370,7 @@
         <v>1</v>
       </c>
       <c r="Q217">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R217">
         <v>18</v>
@@ -12420,7 +12420,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12467,7 +12467,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12514,7 +12514,7 @@
         <v>1</v>
       </c>
       <c r="Q220">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R220">
         <v>28</v>
@@ -12567,7 +12567,7 @@
         <v>1</v>
       </c>
       <c r="Q221">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R221">
         <v>21</v>
@@ -12617,7 +12617,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12664,7 +12664,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12714,7 +12714,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12761,7 +12761,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12808,7 +12808,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12858,7 +12858,7 @@
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R227">
         <v>25</v>
@@ -12911,7 +12911,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -12961,7 +12961,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R229">
         <v>7</v>
@@ -13011,7 +13011,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13058,7 +13058,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13108,7 +13108,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13158,7 +13158,7 @@
         <v>1</v>
       </c>
       <c r="Q233">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R233">
         <v>1</v>
@@ -13202,10 +13202,10 @@
         <v>1</v>
       </c>
       <c r="P234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q234">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13252,7 +13252,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13299,7 +13299,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13346,7 +13346,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13393,7 +13393,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13434,10 +13434,10 @@
         <v>1</v>
       </c>
       <c r="P239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q239">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13487,7 +13487,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R240">
         <v>15</v>
@@ -13540,7 +13540,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13590,7 +13590,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R242">
         <v>14</v>
@@ -13640,7 +13640,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13690,7 +13690,7 @@
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R244">
         <v>6</v>
@@ -13740,7 +13740,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13790,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13840,7 +13840,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R247">
         <v>22</v>
@@ -13893,7 +13893,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R248">
         <v>24</v>
@@ -13946,7 +13946,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -13993,7 +13993,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14040,7 +14040,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14090,7 +14090,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R252">
         <v>15</v>
@@ -14143,7 +14143,7 @@
         <v>1</v>
       </c>
       <c r="Q253">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R253">
         <v>15</v>
@@ -14193,7 +14193,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14240,7 +14240,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14287,7 +14287,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14334,7 +14334,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14384,7 +14384,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R258">
         <v>21</v>
@@ -14437,7 +14437,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14487,7 +14487,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R260">
         <v>14</v>
@@ -14540,7 +14540,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14590,7 +14590,7 @@
         <v>1</v>
       </c>
       <c r="Q262">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R262">
         <v>11</v>
@@ -14640,7 +14640,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14687,7 +14687,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14737,7 +14737,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R265">
         <v>22</v>
@@ -14787,7 +14787,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14837,7 +14837,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R267">
         <v>19</v>
@@ -14887,7 +14887,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14934,7 +14934,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -14981,7 +14981,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15031,7 +15031,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R271">
         <v>15</v>
@@ -15081,7 +15081,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15125,7 +15125,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15172,7 +15172,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15219,7 +15219,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15269,7 +15269,7 @@
         <v>1</v>
       </c>
       <c r="Q276">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R276">
         <v>11</v>
@@ -15319,7 +15319,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15366,7 +15366,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15413,7 +15413,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15460,7 +15460,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15507,7 +15507,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15554,7 +15554,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15604,7 +15604,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15654,7 +15654,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R284">
         <v>8</v>
@@ -15707,7 +15707,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15754,7 +15754,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15801,7 +15801,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15848,7 +15848,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15895,7 +15895,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -15945,7 +15945,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R290">
         <v>10</v>
@@ -15995,7 +15995,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16042,7 +16042,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16092,7 +16092,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R293">
         <v>14</v>
@@ -16145,7 +16145,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16195,7 +16195,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R295">
         <v>7</v>
@@ -16245,7 +16245,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16292,7 +16292,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16339,7 +16339,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R298">
         <v>32</v>
@@ -16389,7 +16389,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16436,7 +16436,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16486,7 +16486,7 @@
         <v>1</v>
       </c>
       <c r="Q301">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R301">
         <v>17</v>
@@ -16536,7 +16536,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16586,7 +16586,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R303">
         <v>15</v>
@@ -16639,7 +16639,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R304">
         <v>28</v>
@@ -16689,7 +16689,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16739,7 +16739,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R306">
         <v>24</v>
@@ -16792,7 +16792,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16842,7 +16842,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R308">
         <v>5</v>
@@ -16892,7 +16892,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16942,7 +16942,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R310">
         <v>18</v>
@@ -16992,7 +16992,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17042,7 +17042,7 @@
         <v>1</v>
       </c>
       <c r="Q312">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R312">
         <v>18</v>
@@ -17092,7 +17092,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17139,7 +17139,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17192,7 +17192,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R315">
         <v>20</v>
@@ -17242,7 +17242,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17289,7 +17289,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17336,7 +17336,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17383,7 +17383,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17430,7 +17430,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17477,7 +17477,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17524,7 +17524,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17571,7 +17571,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17618,7 +17618,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17665,7 +17665,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17712,7 +17712,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17762,7 +17762,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R327">
         <v>12</v>
@@ -17812,7 +17812,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17859,7 +17859,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17909,7 +17909,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R330">
         <v>19</v>
@@ -17962,7 +17962,7 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R331">
         <v>12</v>
@@ -18012,7 +18012,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18062,7 +18062,7 @@
         <v>1</v>
       </c>
       <c r="Q333">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R333">
         <v>6</v>
@@ -18112,7 +18112,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18162,7 +18162,7 @@
         <v>1</v>
       </c>
       <c r="Q335">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R335">
         <v>24</v>
@@ -18212,7 +18212,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18262,7 +18262,7 @@
         <v>1</v>
       </c>
       <c r="Q337">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R337">
         <v>17</v>
@@ -18315,7 +18315,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18365,7 +18365,7 @@
         <v>1</v>
       </c>
       <c r="Q339">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R339">
         <v>8</v>
@@ -18418,7 +18418,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18468,7 +18468,7 @@
         <v>1</v>
       </c>
       <c r="Q341">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R341">
         <v>19</v>
@@ -18521,7 +18521,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18568,7 +18568,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18615,7 +18615,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18662,7 +18662,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18709,7 +18709,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18756,7 +18756,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18806,7 +18806,7 @@
         <v>1</v>
       </c>
       <c r="Q348">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R348">
         <v>6</v>
@@ -18856,7 +18856,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18903,7 +18903,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18950,7 +18950,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -18997,7 +18997,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19044,7 +19044,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19091,7 +19091,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19138,7 +19138,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19185,7 +19185,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19232,7 +19232,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19279,7 +19279,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19329,7 +19329,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19379,7 +19379,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R360">
         <v>34</v>
@@ -19423,10 +19423,10 @@
         <v>1</v>
       </c>
       <c r="P361" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q361">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19473,7 +19473,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19520,7 +19520,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19561,10 +19561,10 @@
         <v>1</v>
       </c>
       <c r="P364" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q364">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19611,7 +19611,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19658,7 +19658,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19705,7 +19705,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19752,7 +19752,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19799,7 +19799,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19846,7 +19846,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19896,7 +19896,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -19946,7 +19946,7 @@
         <v>1</v>
       </c>
       <c r="Q372">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="R372">
         <v>19</v>
@@ -19996,7 +19996,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20043,7 +20043,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20093,7 +20093,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R375">
         <v>0</v>
@@ -20146,7 +20146,7 @@
         <v>1</v>
       </c>
       <c r="Q376">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R376">
         <v>18</v>
@@ -20199,7 +20199,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20249,7 +20249,7 @@
         <v>1</v>
       </c>
       <c r="Q378">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R378">
         <v>11</v>
@@ -20302,7 +20302,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20352,7 +20352,7 @@
         <v>1</v>
       </c>
       <c r="Q380">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R380">
         <v>8</v>
@@ -20405,7 +20405,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20455,7 +20455,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R382">
         <v>9</v>
@@ -20505,7 +20505,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20552,7 +20552,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20602,7 +20602,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R385">
         <v>21</v>
@@ -20655,7 +20655,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20705,7 +20705,7 @@
         <v>1</v>
       </c>
       <c r="Q387">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R387">
         <v>15</v>
@@ -20758,7 +20758,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20805,7 +20805,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20852,7 +20852,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20899,7 +20899,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -20946,7 +20946,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -20996,7 +20996,7 @@
         <v>1</v>
       </c>
       <c r="Q393">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R393">
         <v>18</v>
@@ -21049,7 +21049,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R394">
         <v>17</v>
@@ -21102,7 +21102,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21152,7 +21152,7 @@
         <v>1</v>
       </c>
       <c r="Q396">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R396">
         <v>11</v>
@@ -21202,7 +21202,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21246,7 +21246,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21293,7 +21293,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21340,7 +21340,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21390,7 +21390,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R401">
         <v>33</v>
@@ -21440,7 +21440,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21487,7 +21487,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21534,7 +21534,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21581,7 +21581,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21628,7 +21628,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21678,7 +21678,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R407">
         <v>12</v>
@@ -21728,7 +21728,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21778,7 +21778,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21828,7 +21828,7 @@
         <v>1</v>
       </c>
       <c r="Q410">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R410">
         <v>21</v>
@@ -21881,7 +21881,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21931,7 +21931,7 @@
         <v>1</v>
       </c>
       <c r="Q412">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R412">
         <v>4</v>
@@ -21981,7 +21981,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22025,7 +22025,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22075,7 +22075,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R415">
         <v>7</v>
@@ -22125,7 +22125,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22175,7 +22175,7 @@
         <v>1</v>
       </c>
       <c r="Q417">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R417">
         <v>5</v>
@@ -22228,7 +22228,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R418">
         <v>0</v>
@@ -22278,7 +22278,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22328,7 +22328,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R420">
         <v>22</v>
@@ -22381,7 +22381,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22428,7 +22428,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22475,7 +22475,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22525,7 +22525,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R424">
         <v>31</v>
@@ -22575,7 +22575,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22622,7 +22622,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22672,7 +22672,7 @@
         <v>1</v>
       </c>
       <c r="Q427">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R427">
         <v>20</v>
@@ -22725,7 +22725,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22775,7 +22775,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R429">
         <v>17</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22878,7 +22878,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R431">
         <v>24</v>
@@ -22928,7 +22928,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -22975,7 +22975,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23022,7 +23022,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23072,7 +23072,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23122,7 +23122,7 @@
         <v>1</v>
       </c>
       <c r="Q436">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R436">
         <v>41</v>
@@ -23172,7 +23172,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23222,7 +23222,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23272,7 +23272,7 @@
         <v>1</v>
       </c>
       <c r="Q439">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R439">
         <v>22</v>
@@ -23322,7 +23322,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23372,7 +23372,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R441">
         <v>25</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23516,7 +23516,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23566,7 +23566,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R445">
         <v>11</v>
@@ -23616,7 +23616,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23663,7 +23663,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23757,7 +23757,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23807,7 +23807,7 @@
         <v>1</v>
       </c>
       <c r="Q450">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R450">
         <v>23</v>
@@ -23857,7 +23857,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23907,7 +23907,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R452">
         <v>25</v>
@@ -23957,7 +23957,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24004,7 +24004,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24051,7 +24051,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24148,7 +24148,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24198,7 +24198,7 @@
         <v>1</v>
       </c>
       <c r="Q458">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R458">
         <v>22</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24295,7 +24295,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24345,7 +24345,7 @@
         <v>1</v>
       </c>
       <c r="Q461">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R461">
         <v>0</v>
@@ -24395,7 +24395,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24442,7 +24442,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24492,7 +24492,7 @@
         <v>1</v>
       </c>
       <c r="Q464">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R464">
         <v>21</v>
@@ -24542,7 +24542,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24592,7 +24592,7 @@
         <v>1</v>
       </c>
       <c r="Q466">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R466">
         <v>16</v>
@@ -24642,7 +24642,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24692,7 +24692,7 @@
         <v>1</v>
       </c>
       <c r="Q468">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R468">
         <v>18</v>
@@ -24742,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24789,7 +24789,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24839,7 +24839,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R471">
         <v>4</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -24939,7 +24939,7 @@
         <v>1</v>
       </c>
       <c r="Q473">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R473">
         <v>8</v>
@@ -24989,7 +24989,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25039,7 +25039,7 @@
         <v>1</v>
       </c>
       <c r="Q475">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R475">
         <v>9</v>
@@ -25095,7 +25095,7 @@
         <v>1</v>
       </c>
       <c r="Q476">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R476">
         <v>3</v>
@@ -25139,10 +25139,10 @@
         <v>1</v>
       </c>
       <c r="P477" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q477">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25183,7 +25183,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
